--- a/templates/hämtlista_template.xlsx
+++ b/templates/hämtlista_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\Jupyter\Enterprise\SvenskaKyrkan\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\JupyterLab\Kyrkan\WebShopReport\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5905D7-8D9A-447A-9E28-92EB0570C086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BAF555-AF46-49CE-8EFE-7681E56DB367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Hämtningar</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Datum och tid</t>
-  </si>
-  <si>
-    <t>Påskmarknad 2022</t>
   </si>
 </sst>
 </file>
@@ -534,24 +531,22 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="2" width="3.453125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="1" spans="1:9" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="13" t="s">
@@ -564,10 +559,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -585,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17">
@@ -593,7 +588,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="15">
         <v>1</v>
       </c>
@@ -604,7 +599,7 @@
       <c r="G6" s="5"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -613,7 +608,7 @@
       <c r="G7" s="4"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C8" s="8" t="s">
         <v>4</v>
       </c>

--- a/templates/hämtlista_template.xlsx
+++ b/templates/hämtlista_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\JupyterLab\Kyrkan\WebShopReport\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BAF555-AF46-49CE-8EFE-7681E56DB367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B08E9-7137-4A4F-A1DB-4F3A54DBBE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,8 +620,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CSida &amp;P av &amp;N&amp;R&amp;A</oddFooter>
   </headerFooter>

--- a/templates/hämtlista_template.xlsx
+++ b/templates/hämtlista_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\JupyterLab\Kyrkan\WebShopReport\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B08E9-7137-4A4F-A1DB-4F3A54DBBE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F37B073-CCDA-4372-8BF8-303D4A0799C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="5" r:id="rId1"/>
@@ -203,15 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,8 +218,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -230,14 +229,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,7 +246,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,36 +533,36 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.453125" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="25.36328125" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E3" s="12"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="16"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -580,39 +579,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16">
         <v>0</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="15">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="6"/>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
@@ -626,4 +622,10 @@
     <oddFooter>&amp;CSida &amp;P av &amp;N&amp;R&amp;A</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{a59b6cd5-d141-4a33-8bf1-0ca04484304f}" enabled="1" method="Standard" siteId="{38ae3bcd-9579-4fd4-adda-b42e1495d55a}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>